--- a/jyx2/Assets/Mods/jhz/Configs/场景.xlsx
+++ b/jyx2/Assets/Mods/jhz/Configs/场景.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\GitHub\github-jynew\jyx2\Assets\Mods\jhz\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734FC5D5-D044-4414-AA39-3546522D9862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1208" yWindow="6233" windowWidth="19200" windowHeight="11168"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="271">
   <si>
     <t>Id</t>
   </si>
@@ -1021,12 +1027,24 @@
     <t>情谷底</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>脚本绑定</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BindScript</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_jianghukezhan</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1078,6 +1096,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1113,7 +1138,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1128,13 +1153,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1"/>
-    <cellStyle name="普通 2" xfId="2"/>
-    <cellStyle name="普通 3" xfId="4"/>
-    <cellStyle name="普通 4" xfId="3"/>
+    <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="普通 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="普通 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -1477,26 +1503,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="9.9296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="87.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="87.6328125" customWidth="1"/>
     <col min="5" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="11.06640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.06640625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="11.08984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.08984375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.1796875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>117</v>
       </c>
@@ -1504,7 +1531,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1529,7 +1556,9 @@
       <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="8" t="s">
+        <v>268</v>
+      </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -1550,7 +1579,7 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>118</v>
       </c>
@@ -1575,7 +1604,9 @@
       <c r="H3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -1596,7 +1627,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1621,8 +1652,11 @@
       <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="I4" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -1666,7 +1700,7 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1691,7 +1725,9 @@
       <c r="H6" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1712,7 +1748,7 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -1756,7 +1792,7 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -1800,7 +1836,7 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -1846,7 +1882,7 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -1892,7 +1928,7 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -1936,7 +1972,7 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -1982,7 +2018,7 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -2026,7 +2062,7 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>9</v>
       </c>
@@ -2070,7 +2106,7 @@
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>10</v>
       </c>
@@ -2116,7 +2152,7 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>11</v>
       </c>
@@ -2160,7 +2196,7 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>12</v>
       </c>
@@ -2204,7 +2240,7 @@
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
@@ -2248,7 +2284,7 @@
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>14</v>
       </c>
@@ -2294,7 +2330,7 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>15</v>
       </c>
@@ -2338,7 +2374,7 @@
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>16</v>
       </c>
@@ -2382,7 +2418,7 @@
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>17</v>
       </c>
@@ -2426,7 +2462,7 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>18</v>
       </c>
@@ -2472,7 +2508,7 @@
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>19</v>
       </c>
@@ -2516,7 +2552,7 @@
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>20</v>
       </c>
@@ -2560,7 +2596,7 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>21</v>
       </c>
@@ -2606,7 +2642,7 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>22</v>
       </c>
@@ -2650,7 +2686,7 @@
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>23</v>
       </c>
@@ -2694,7 +2730,7 @@
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>24</v>
       </c>
@@ -2738,7 +2774,7 @@
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>25</v>
       </c>
@@ -2782,7 +2818,7 @@
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>26</v>
       </c>
@@ -2826,7 +2862,7 @@
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>27</v>
       </c>
@@ -2870,7 +2906,7 @@
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>28</v>
       </c>
@@ -2914,7 +2950,7 @@
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>29</v>
       </c>
@@ -2958,7 +2994,7 @@
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>30</v>
       </c>
@@ -3002,7 +3038,7 @@
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>31</v>
       </c>
@@ -3046,7 +3082,7 @@
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>32</v>
       </c>
@@ -3090,7 +3126,7 @@
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>33</v>
       </c>
@@ -3134,7 +3170,7 @@
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>34</v>
       </c>
@@ -3178,7 +3214,7 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>35</v>
       </c>
@@ -3222,7 +3258,7 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>36</v>
       </c>
@@ -3266,7 +3302,7 @@
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>37</v>
       </c>
@@ -3310,7 +3346,7 @@
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>38</v>
       </c>
@@ -3354,7 +3390,7 @@
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>39</v>
       </c>
@@ -3398,7 +3434,7 @@
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>40</v>
       </c>
@@ -3442,7 +3478,7 @@
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>41</v>
       </c>
@@ -3488,7 +3524,7 @@
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>42</v>
       </c>
@@ -3534,7 +3570,7 @@
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>43</v>
       </c>
@@ -3578,7 +3614,7 @@
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>44</v>
       </c>
@@ -3622,7 +3658,7 @@
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>45</v>
       </c>
@@ -3666,7 +3702,7 @@
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>46</v>
       </c>
@@ -3712,7 +3748,7 @@
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>47</v>
       </c>
@@ -3756,7 +3792,7 @@
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>48</v>
       </c>
@@ -3800,7 +3836,7 @@
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>49</v>
       </c>
@@ -3844,7 +3880,7 @@
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>50</v>
       </c>
@@ -3888,7 +3924,7 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>51</v>
       </c>
@@ -3932,7 +3968,7 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>52</v>
       </c>
@@ -3976,7 +4012,7 @@
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>53</v>
       </c>
@@ -4020,7 +4056,7 @@
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>54</v>
       </c>
@@ -4064,7 +4100,7 @@
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>55</v>
       </c>
@@ -4108,7 +4144,7 @@
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>56</v>
       </c>
@@ -4152,7 +4188,7 @@
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>57</v>
       </c>
@@ -4196,7 +4232,7 @@
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>58</v>
       </c>
@@ -4240,7 +4276,7 @@
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>59</v>
       </c>
@@ -4284,7 +4320,7 @@
       <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>60</v>
       </c>
@@ -4328,7 +4364,7 @@
       <c r="AA65" s="3"/>
       <c r="AB65" s="3"/>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>61</v>
       </c>
@@ -4372,7 +4408,7 @@
       <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>62</v>
       </c>
@@ -4416,7 +4452,7 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>63</v>
       </c>
@@ -4460,7 +4496,7 @@
       <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>64</v>
       </c>
@@ -4504,7 +4540,7 @@
       <c r="AA69" s="3"/>
       <c r="AB69" s="3"/>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>65</v>
       </c>
@@ -4550,7 +4586,7 @@
       <c r="AA70" s="3"/>
       <c r="AB70" s="3"/>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>66</v>
       </c>
@@ -4596,7 +4632,7 @@
       <c r="AA71" s="3"/>
       <c r="AB71" s="3"/>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>67</v>
       </c>
@@ -4642,7 +4678,7 @@
       <c r="AA72" s="3"/>
       <c r="AB72" s="3"/>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>68</v>
       </c>
@@ -4686,7 +4722,7 @@
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>69</v>
       </c>
@@ -4730,7 +4766,7 @@
       <c r="AA74" s="3"/>
       <c r="AB74" s="3"/>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>70</v>
       </c>
@@ -4774,7 +4810,7 @@
       <c r="AA75" s="3"/>
       <c r="AB75" s="3"/>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>71</v>
       </c>
@@ -4818,7 +4854,7 @@
       <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>72</v>
       </c>
@@ -4864,7 +4900,7 @@
       <c r="AA77" s="3"/>
       <c r="AB77" s="3"/>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>73</v>
       </c>
@@ -4908,7 +4944,7 @@
       <c r="AA78" s="3"/>
       <c r="AB78" s="3"/>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>74</v>
       </c>
@@ -4952,7 +4988,7 @@
       <c r="AA79" s="3"/>
       <c r="AB79" s="3"/>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>75</v>
       </c>
@@ -4996,7 +5032,7 @@
       <c r="AA80" s="3"/>
       <c r="AB80" s="3"/>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>76</v>
       </c>
@@ -5040,7 +5076,7 @@
       <c r="AA81" s="3"/>
       <c r="AB81" s="3"/>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>77</v>
       </c>
@@ -5084,7 +5120,7 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
     </row>
-    <row r="83" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>78</v>
       </c>
@@ -5128,7 +5164,7 @@
       <c r="AA83" s="3"/>
       <c r="AB83" s="3"/>
     </row>
-    <row r="84" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>79</v>
       </c>
@@ -5172,7 +5208,7 @@
       <c r="AA84" s="3"/>
       <c r="AB84" s="3"/>
     </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>80</v>
       </c>
@@ -5216,7 +5252,7 @@
       <c r="AA85" s="3"/>
       <c r="AB85" s="3"/>
     </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>81</v>
       </c>
@@ -5260,7 +5296,7 @@
       <c r="AA86" s="3"/>
       <c r="AB86" s="3"/>
     </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>82</v>
       </c>
@@ -5304,7 +5340,7 @@
       <c r="AA87" s="3"/>
       <c r="AB87" s="3"/>
     </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>83</v>
       </c>
@@ -5350,7 +5386,7 @@
       <c r="AA88" s="3"/>
       <c r="AB88" s="3"/>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>1000</v>
       </c>
@@ -5415,7 +5451,7 @@
       <c r="AT89" s="3"/>
       <c r="AU89" s="3"/>
     </row>
-    <row r="90" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -5464,7 +5500,7 @@
       <c r="AT90" s="3"/>
       <c r="AU90" s="3"/>
     </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -5513,7 +5549,7 @@
       <c r="AT91" s="3"/>
       <c r="AU91" s="3"/>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -5562,7 +5598,7 @@
       <c r="AT92" s="3"/>
       <c r="AU92" s="3"/>
     </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5611,7 +5647,7 @@
       <c r="AT93" s="3"/>
       <c r="AU93" s="3"/>
     </row>
-    <row r="94" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -5660,7 +5696,7 @@
       <c r="AT94" s="3"/>
       <c r="AU94" s="3"/>
     </row>
-    <row r="95" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -5709,7 +5745,7 @@
       <c r="AT95" s="3"/>
       <c r="AU95" s="3"/>
     </row>
-    <row r="96" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -5758,7 +5794,7 @@
       <c r="AT96" s="3"/>
       <c r="AU96" s="3"/>
     </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -5807,7 +5843,7 @@
       <c r="AT97" s="3"/>
       <c r="AU97" s="3"/>
     </row>
-    <row r="98" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -5856,7 +5892,7 @@
       <c r="AT98" s="3"/>
       <c r="AU98" s="3"/>
     </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -5905,7 +5941,7 @@
       <c r="AT99" s="3"/>
       <c r="AU99" s="3"/>
     </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -5954,7 +5990,7 @@
       <c r="AT100" s="3"/>
       <c r="AU100" s="3"/>
     </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -6003,7 +6039,7 @@
       <c r="AT101" s="3"/>
       <c r="AU101" s="3"/>
     </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -6052,7 +6088,7 @@
       <c r="AT102" s="3"/>
       <c r="AU102" s="3"/>
     </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -6101,7 +6137,7 @@
       <c r="AT103" s="3"/>
       <c r="AU103" s="3"/>
     </row>
-    <row r="104" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -6150,7 +6186,7 @@
       <c r="AT104" s="3"/>
       <c r="AU104" s="3"/>
     </row>
-    <row r="105" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -6199,7 +6235,7 @@
       <c r="AT105" s="3"/>
       <c r="AU105" s="3"/>
     </row>
-    <row r="106" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -6248,7 +6284,7 @@
       <c r="AT106" s="3"/>
       <c r="AU106" s="3"/>
     </row>
-    <row r="107" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -6297,7 +6333,7 @@
       <c r="AT107" s="3"/>
       <c r="AU107" s="3"/>
     </row>
-    <row r="108" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -6346,7 +6382,7 @@
       <c r="AT108" s="3"/>
       <c r="AU108" s="3"/>
     </row>
-    <row r="109" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -6395,7 +6431,7 @@
       <c r="AT109" s="3"/>
       <c r="AU109" s="3"/>
     </row>
-    <row r="110" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -6444,7 +6480,7 @@
       <c r="AT110" s="3"/>
       <c r="AU110" s="3"/>
     </row>
-    <row r="111" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -6493,7 +6529,7 @@
       <c r="AT111" s="3"/>
       <c r="AU111" s="3"/>
     </row>
-    <row r="112" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6542,7 +6578,7 @@
       <c r="AT112" s="3"/>
       <c r="AU112" s="3"/>
     </row>
-    <row r="113" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -6591,7 +6627,7 @@
       <c r="AT113" s="3"/>
       <c r="AU113" s="3"/>
     </row>
-    <row r="114" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6640,7 +6676,7 @@
       <c r="AT114" s="3"/>
       <c r="AU114" s="3"/>
     </row>
-    <row r="115" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -6689,7 +6725,7 @@
       <c r="AT115" s="3"/>
       <c r="AU115" s="3"/>
     </row>
-    <row r="116" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -6738,7 +6774,7 @@
       <c r="AT116" s="3"/>
       <c r="AU116" s="3"/>
     </row>
-    <row r="117" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -6787,7 +6823,7 @@
       <c r="AT117" s="3"/>
       <c r="AU117" s="3"/>
     </row>
-    <row r="118" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -6836,7 +6872,7 @@
       <c r="AT118" s="3"/>
       <c r="AU118" s="3"/>
     </row>
-    <row r="119" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -6885,7 +6921,7 @@
       <c r="AT119" s="3"/>
       <c r="AU119" s="3"/>
     </row>
-    <row r="120" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -6934,7 +6970,7 @@
       <c r="AT120" s="3"/>
       <c r="AU120" s="3"/>
     </row>
-    <row r="121" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -6983,7 +7019,7 @@
       <c r="AT121" s="3"/>
       <c r="AU121" s="3"/>
     </row>
-    <row r="122" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -7032,7 +7068,7 @@
       <c r="AT122" s="3"/>
       <c r="AU122" s="3"/>
     </row>
-    <row r="123" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -7081,7 +7117,7 @@
       <c r="AT123" s="3"/>
       <c r="AU123" s="3"/>
     </row>
-    <row r="124" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -7130,7 +7166,7 @@
       <c r="AT124" s="3"/>
       <c r="AU124" s="3"/>
     </row>
-    <row r="125" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -7179,7 +7215,7 @@
       <c r="AT125" s="3"/>
       <c r="AU125" s="3"/>
     </row>
-    <row r="126" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -7228,7 +7264,7 @@
       <c r="AT126" s="3"/>
       <c r="AU126" s="3"/>
     </row>
-    <row r="127" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -7277,7 +7313,7 @@
       <c r="AT127" s="3"/>
       <c r="AU127" s="3"/>
     </row>
-    <row r="128" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -7326,7 +7362,7 @@
       <c r="AT128" s="3"/>
       <c r="AU128" s="3"/>
     </row>
-    <row r="129" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -7375,7 +7411,7 @@
       <c r="AT129" s="3"/>
       <c r="AU129" s="3"/>
     </row>
-    <row r="130" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -7424,7 +7460,7 @@
       <c r="AT130" s="3"/>
       <c r="AU130" s="3"/>
     </row>
-    <row r="131" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -7473,7 +7509,7 @@
       <c r="AT131" s="3"/>
       <c r="AU131" s="3"/>
     </row>
-    <row r="132" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -7522,7 +7558,7 @@
       <c r="AT132" s="3"/>
       <c r="AU132" s="3"/>
     </row>
-    <row r="133" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -7571,7 +7607,7 @@
       <c r="AT133" s="3"/>
       <c r="AU133" s="3"/>
     </row>
-    <row r="134" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -7620,7 +7656,7 @@
       <c r="AT134" s="3"/>
       <c r="AU134" s="3"/>
     </row>
-    <row r="135" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -7669,7 +7705,7 @@
       <c r="AT135" s="3"/>
       <c r="AU135" s="3"/>
     </row>
-    <row r="136" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -7718,7 +7754,7 @@
       <c r="AT136" s="3"/>
       <c r="AU136" s="3"/>
     </row>
-    <row r="137" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -7767,7 +7803,7 @@
       <c r="AT137" s="3"/>
       <c r="AU137" s="3"/>
     </row>
-    <row r="138" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -7816,7 +7852,7 @@
       <c r="AT138" s="3"/>
       <c r="AU138" s="3"/>
     </row>
-    <row r="139" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -7865,7 +7901,7 @@
       <c r="AT139" s="3"/>
       <c r="AU139" s="3"/>
     </row>
-    <row r="140" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -7914,7 +7950,7 @@
       <c r="AT140" s="3"/>
       <c r="AU140" s="3"/>
     </row>
-    <row r="141" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -7963,7 +7999,7 @@
       <c r="AT141" s="3"/>
       <c r="AU141" s="3"/>
     </row>
-    <row r="142" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -8012,7 +8048,7 @@
       <c r="AT142" s="3"/>
       <c r="AU142" s="3"/>
     </row>
-    <row r="143" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -8061,7 +8097,7 @@
       <c r="AT143" s="3"/>
       <c r="AU143" s="3"/>
     </row>
-    <row r="144" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -8110,7 +8146,7 @@
       <c r="AT144" s="3"/>
       <c r="AU144" s="3"/>
     </row>
-    <row r="145" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -8159,7 +8195,7 @@
       <c r="AT145" s="3"/>
       <c r="AU145" s="3"/>
     </row>
-    <row r="146" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -8208,7 +8244,7 @@
       <c r="AT146" s="3"/>
       <c r="AU146" s="3"/>
     </row>
-    <row r="147" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -8257,7 +8293,7 @@
       <c r="AT147" s="3"/>
       <c r="AU147" s="3"/>
     </row>
-    <row r="148" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -8306,7 +8342,7 @@
       <c r="AT148" s="3"/>
       <c r="AU148" s="3"/>
     </row>
-    <row r="149" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -8355,7 +8391,7 @@
       <c r="AT149" s="3"/>
       <c r="AU149" s="3"/>
     </row>
-    <row r="150" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -8404,7 +8440,7 @@
       <c r="AT150" s="3"/>
       <c r="AU150" s="3"/>
     </row>
-    <row r="151" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -8453,7 +8489,7 @@
       <c r="AT151" s="3"/>
       <c r="AU151" s="3"/>
     </row>
-    <row r="152" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -8502,7 +8538,7 @@
       <c r="AT152" s="3"/>
       <c r="AU152" s="3"/>
     </row>
-    <row r="153" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -8551,7 +8587,7 @@
       <c r="AT153" s="3"/>
       <c r="AU153" s="3"/>
     </row>
-    <row r="154" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -8600,7 +8636,7 @@
       <c r="AT154" s="3"/>
       <c r="AU154" s="3"/>
     </row>
-    <row r="155" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -8649,7 +8685,7 @@
       <c r="AT155" s="3"/>
       <c r="AU155" s="3"/>
     </row>
-    <row r="156" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -8698,7 +8734,7 @@
       <c r="AT156" s="3"/>
       <c r="AU156" s="3"/>
     </row>
-    <row r="157" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -8747,7 +8783,7 @@
       <c r="AT157" s="3"/>
       <c r="AU157" s="3"/>
     </row>
-    <row r="158" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -8796,7 +8832,7 @@
       <c r="AT158" s="3"/>
       <c r="AU158" s="3"/>
     </row>
-    <row r="159" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -8845,7 +8881,7 @@
       <c r="AT159" s="3"/>
       <c r="AU159" s="3"/>
     </row>
-    <row r="160" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -8894,7 +8930,7 @@
       <c r="AT160" s="3"/>
       <c r="AU160" s="3"/>
     </row>
-    <row r="161" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -8943,7 +8979,7 @@
       <c r="AT161" s="3"/>
       <c r="AU161" s="3"/>
     </row>
-    <row r="162" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -8992,7 +9028,7 @@
       <c r="AT162" s="3"/>
       <c r="AU162" s="3"/>
     </row>
-    <row r="163" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -9041,7 +9077,7 @@
       <c r="AT163" s="3"/>
       <c r="AU163" s="3"/>
     </row>
-    <row r="164" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -9090,7 +9126,7 @@
       <c r="AT164" s="3"/>
       <c r="AU164" s="3"/>
     </row>
-    <row r="165" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -9139,7 +9175,7 @@
       <c r="AT165" s="3"/>
       <c r="AU165" s="3"/>
     </row>
-    <row r="166" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -9188,7 +9224,7 @@
       <c r="AT166" s="3"/>
       <c r="AU166" s="3"/>
     </row>
-    <row r="167" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -9237,7 +9273,7 @@
       <c r="AT167" s="3"/>
       <c r="AU167" s="3"/>
     </row>
-    <row r="168" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -9286,7 +9322,7 @@
       <c r="AT168" s="3"/>
       <c r="AU168" s="3"/>
     </row>
-    <row r="169" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -9335,7 +9371,7 @@
       <c r="AT169" s="3"/>
       <c r="AU169" s="3"/>
     </row>
-    <row r="170" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -9384,7 +9420,7 @@
       <c r="AT170" s="3"/>
       <c r="AU170" s="3"/>
     </row>
-    <row r="171" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -9433,7 +9469,7 @@
       <c r="AT171" s="3"/>
       <c r="AU171" s="3"/>
     </row>
-    <row r="172" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -9482,7 +9518,7 @@
       <c r="AT172" s="3"/>
       <c r="AU172" s="3"/>
     </row>
-    <row r="173" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -9531,7 +9567,7 @@
       <c r="AT173" s="3"/>
       <c r="AU173" s="3"/>
     </row>
-    <row r="174" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -9580,7 +9616,7 @@
       <c r="AT174" s="3"/>
       <c r="AU174" s="3"/>
     </row>
-    <row r="175" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -9629,7 +9665,7 @@
       <c r="AT175" s="3"/>
       <c r="AU175" s="3"/>
     </row>
-    <row r="176" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -9678,7 +9714,7 @@
       <c r="AT176" s="3"/>
       <c r="AU176" s="3"/>
     </row>
-    <row r="177" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -9727,7 +9763,7 @@
       <c r="AT177" s="3"/>
       <c r="AU177" s="3"/>
     </row>
-    <row r="178" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -9776,7 +9812,7 @@
       <c r="AT178" s="3"/>
       <c r="AU178" s="3"/>
     </row>
-    <row r="179" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -9825,7 +9861,7 @@
       <c r="AT179" s="3"/>
       <c r="AU179" s="3"/>
     </row>
-    <row r="180" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -9874,7 +9910,7 @@
       <c r="AT180" s="3"/>
       <c r="AU180" s="3"/>
     </row>
-    <row r="181" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -9923,7 +9959,7 @@
       <c r="AT181" s="3"/>
       <c r="AU181" s="3"/>
     </row>
-    <row r="182" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -9972,7 +10008,7 @@
       <c r="AT182" s="3"/>
       <c r="AU182" s="3"/>
     </row>
-    <row r="183" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -10021,7 +10057,7 @@
       <c r="AT183" s="3"/>
       <c r="AU183" s="3"/>
     </row>
-    <row r="184" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -10070,7 +10106,7 @@
       <c r="AT184" s="3"/>
       <c r="AU184" s="3"/>
     </row>
-    <row r="185" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -10119,7 +10155,7 @@
       <c r="AT185" s="3"/>
       <c r="AU185" s="3"/>
     </row>
-    <row r="186" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -10168,7 +10204,7 @@
       <c r="AT186" s="3"/>
       <c r="AU186" s="3"/>
     </row>
-    <row r="187" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -10217,7 +10253,7 @@
       <c r="AT187" s="3"/>
       <c r="AU187" s="3"/>
     </row>
-    <row r="188" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -10266,7 +10302,7 @@
       <c r="AT188" s="3"/>
       <c r="AU188" s="3"/>
     </row>
-    <row r="189" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -10315,7 +10351,7 @@
       <c r="AT189" s="3"/>
       <c r="AU189" s="3"/>
     </row>
-    <row r="190" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -10364,7 +10400,7 @@
       <c r="AT190" s="3"/>
       <c r="AU190" s="3"/>
     </row>
-    <row r="191" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -10413,7 +10449,7 @@
       <c r="AT191" s="3"/>
       <c r="AU191" s="3"/>
     </row>
-    <row r="192" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -10462,7 +10498,7 @@
       <c r="AT192" s="3"/>
       <c r="AU192" s="3"/>
     </row>
-    <row r="193" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -10511,7 +10547,7 @@
       <c r="AT193" s="3"/>
       <c r="AU193" s="3"/>
     </row>
-    <row r="194" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -10560,7 +10596,7 @@
       <c r="AT194" s="3"/>
       <c r="AU194" s="3"/>
     </row>
-    <row r="195" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -10609,7 +10645,7 @@
       <c r="AT195" s="3"/>
       <c r="AU195" s="3"/>
     </row>
-    <row r="196" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -10658,7 +10694,7 @@
       <c r="AT196" s="3"/>
       <c r="AU196" s="3"/>
     </row>
-    <row r="197" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -10707,7 +10743,7 @@
       <c r="AT197" s="3"/>
       <c r="AU197" s="3"/>
     </row>
-    <row r="198" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -10756,7 +10792,7 @@
       <c r="AT198" s="3"/>
       <c r="AU198" s="3"/>
     </row>
-    <row r="199" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -10805,7 +10841,7 @@
       <c r="AT199" s="3"/>
       <c r="AU199" s="3"/>
     </row>
-    <row r="200" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -10854,7 +10890,7 @@
       <c r="AT200" s="3"/>
       <c r="AU200" s="3"/>
     </row>
-    <row r="201" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -10903,7 +10939,7 @@
       <c r="AT201" s="3"/>
       <c r="AU201" s="3"/>
     </row>
-    <row r="202" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -10952,7 +10988,7 @@
       <c r="AT202" s="3"/>
       <c r="AU202" s="3"/>
     </row>
-    <row r="203" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -11001,7 +11037,7 @@
       <c r="AT203" s="3"/>
       <c r="AU203" s="3"/>
     </row>
-    <row r="204" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>

--- a/jyx2/Assets/Mods/jhz/Configs/场景.xlsx
+++ b/jyx2/Assets/Mods/jhz/Configs/场景.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\GitHub\github-jynew\jyx2\Assets\Mods\jhz\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734FC5D5-D044-4414-AA39-3546522D9862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="19395" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -481,10 +475,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Leave:5</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Leave:6</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1037,13 +1027,17 @@
   </si>
   <si>
     <t>01_jianghukezhan</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:6</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1157,10 +1151,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="普通 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="普通 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="普通" xfId="1"/>
+    <cellStyle name="普通 2" xfId="2"/>
+    <cellStyle name="普通 3" xfId="4"/>
+    <cellStyle name="普通 4" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -1503,27 +1497,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU204"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="9.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="87.6328125" customWidth="1"/>
+    <col min="2" max="2" width="9.9296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="87.59765625" customWidth="1"/>
     <col min="5" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="11.08984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.08984375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.1796875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.06640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.06640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.19921875" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>117</v>
       </c>
@@ -1531,7 +1525,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1557,7 +1551,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -1579,7 +1573,7 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>118</v>
       </c>
@@ -1627,7 +1621,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1653,15 +1647,15 @@
         <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
@@ -1700,18 +1694,18 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
@@ -1726,7 +1720,7 @@
         <v>120</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1748,12 +1742,12 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -1792,7 +1786,7 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -1836,18 +1830,18 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>125</v>
+        <v>270</v>
       </c>
       <c r="E9" s="3">
         <v>8</v>
@@ -1882,18 +1876,18 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E10" s="3">
         <v>12</v>
@@ -1928,18 +1922,18 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E11" s="3">
         <v>11</v>
@@ -1972,18 +1966,18 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E12" s="3">
         <v>12</v>
@@ -2018,7 +2012,7 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -2029,7 +2023,7 @@
         <v>28</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13" s="3">
         <v>4</v>
@@ -2062,18 +2056,18 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>9</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E14" s="3">
         <v>-1</v>
@@ -2106,12 +2100,12 @@
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>10</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>30</v>
@@ -2152,18 +2146,18 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>11</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E16" s="3">
         <v>10</v>
@@ -2196,18 +2190,18 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>12</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E17" s="3">
         <v>-1</v>
@@ -2240,18 +2234,18 @@
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E18" s="3">
         <v>12</v>
@@ -2284,18 +2278,18 @@
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>14</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E19" s="3">
         <v>12</v>
@@ -2330,18 +2324,18 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>15</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E20" s="3">
         <v>12</v>
@@ -2374,18 +2368,18 @@
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>16</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E21" s="3">
         <v>4</v>
@@ -2418,18 +2412,18 @@
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>17</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E22" s="3">
         <v>4</v>
@@ -2462,7 +2456,7 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>18</v>
       </c>
@@ -2473,7 +2467,7 @@
         <v>39</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E23" s="3">
         <v>12</v>
@@ -2508,18 +2502,18 @@
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>19</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E24" s="3">
         <v>22</v>
@@ -2552,12 +2546,12 @@
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>20</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>41</v>
@@ -2596,18 +2590,18 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>21</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E26" s="3">
         <v>8</v>
@@ -2642,18 +2636,18 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>22</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E27" s="3">
         <v>-1</v>
@@ -2686,18 +2680,18 @@
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>23</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E28" s="3">
         <v>-1</v>
@@ -2730,18 +2724,18 @@
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>24</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E29" s="3">
         <v>-1</v>
@@ -2774,18 +2768,18 @@
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>25</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E30" s="3">
         <v>15</v>
@@ -2818,18 +2812,18 @@
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>26</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E31" s="3">
         <v>-1</v>
@@ -2862,18 +2856,18 @@
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>27</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E32" s="3">
         <v>-1</v>
@@ -2906,18 +2900,18 @@
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>28</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E33" s="3">
         <v>20</v>
@@ -2950,18 +2944,18 @@
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>29</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E34" s="3">
         <v>22</v>
@@ -2994,12 +2988,12 @@
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>30</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>52</v>
@@ -3038,18 +3032,18 @@
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>31</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E36" s="3">
         <v>21</v>
@@ -3082,18 +3076,18 @@
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>32</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
@@ -3126,18 +3120,18 @@
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>33</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E38" s="3">
         <v>23</v>
@@ -3170,18 +3164,18 @@
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>34</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E39" s="3">
         <v>-1</v>
@@ -3214,18 +3208,18 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>35</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E40" s="3">
         <v>4</v>
@@ -3258,18 +3252,18 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>36</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E41" s="3">
         <v>-1</v>
@@ -3302,18 +3296,18 @@
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>37</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E42" s="3">
         <v>-1</v>
@@ -3346,18 +3340,18 @@
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>38</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E43" s="3">
         <v>-1</v>
@@ -3390,18 +3384,18 @@
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>39</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E44" s="3">
         <v>4</v>
@@ -3434,12 +3428,12 @@
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>40</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>62</v>
@@ -3478,18 +3472,18 @@
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>41</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E46" s="3">
         <v>12</v>
@@ -3524,18 +3518,18 @@
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>42</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E47" s="3">
         <v>12</v>
@@ -3570,18 +3564,18 @@
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>43</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E48" s="3">
         <v>22</v>
@@ -3614,18 +3608,18 @@
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>44</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E49" s="3">
         <v>-1</v>
@@ -3658,18 +3652,18 @@
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>45</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E50" s="3">
         <v>8</v>
@@ -3702,18 +3696,18 @@
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>46</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E51" s="3">
         <v>12</v>
@@ -3748,18 +3742,18 @@
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>47</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E52" s="3">
         <v>8</v>
@@ -3792,18 +3786,18 @@
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>48</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E53" s="3">
         <v>-1</v>
@@ -3836,18 +3830,18 @@
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>49</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -3880,12 +3874,12 @@
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>50</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>72</v>
@@ -3924,7 +3918,7 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>51</v>
       </c>
@@ -3935,7 +3929,7 @@
         <v>74</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E56" s="3">
         <v>-1</v>
@@ -3968,18 +3962,18 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>52</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E57" s="3">
         <v>1</v>
@@ -4012,18 +4006,18 @@
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>53</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E58" s="3">
         <v>-1</v>
@@ -4056,18 +4050,18 @@
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>54</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E59" s="3">
         <v>-1</v>
@@ -4100,7 +4094,7 @@
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>55</v>
       </c>
@@ -4111,7 +4105,7 @@
         <v>79</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E60" s="3">
         <v>1</v>
@@ -4144,18 +4138,18 @@
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>56</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E61" s="3">
         <v>9</v>
@@ -4188,18 +4182,18 @@
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>57</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E62" s="3">
         <v>-1</v>
@@ -4232,18 +4226,18 @@
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>58</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E63" s="3">
         <v>-1</v>
@@ -4276,18 +4270,18 @@
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>59</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E64" s="3">
         <v>-1</v>
@@ -4320,12 +4314,12 @@
       <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>60</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>84</v>
@@ -4364,18 +4358,18 @@
       <c r="AA65" s="3"/>
       <c r="AB65" s="3"/>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>61</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E66" s="3">
         <v>2</v>
@@ -4408,7 +4402,7 @@
       <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>62</v>
       </c>
@@ -4419,7 +4413,7 @@
         <v>87</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E67" s="3">
         <v>-1</v>
@@ -4452,18 +4446,18 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>63</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E68" s="3">
         <v>-1</v>
@@ -4496,18 +4490,18 @@
       <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>64</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E69" s="3">
         <v>11</v>
@@ -4540,18 +4534,18 @@
       <c r="AA69" s="3"/>
       <c r="AB69" s="3"/>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>65</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E70" s="3">
         <v>12</v>
@@ -4586,12 +4580,12 @@
       <c r="AA70" s="3"/>
       <c r="AB70" s="3"/>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>66</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>91</v>
@@ -4632,18 +4626,18 @@
       <c r="AA71" s="3"/>
       <c r="AB71" s="3"/>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>67</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E72" s="3">
         <v>12</v>
@@ -4678,18 +4672,18 @@
       <c r="AA72" s="3"/>
       <c r="AB72" s="3"/>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>68</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E73" s="3">
         <v>4</v>
@@ -4722,18 +4716,18 @@
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>69</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E74" s="3">
         <v>4</v>
@@ -4766,12 +4760,12 @@
       <c r="AA74" s="3"/>
       <c r="AB74" s="3"/>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>70</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>95</v>
@@ -4810,18 +4804,18 @@
       <c r="AA75" s="3"/>
       <c r="AB75" s="3"/>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>71</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E76" s="3">
         <v>-1</v>
@@ -4854,18 +4848,18 @@
       <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>72</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E77" s="3">
         <v>12</v>
@@ -4900,18 +4894,18 @@
       <c r="AA77" s="3"/>
       <c r="AB77" s="3"/>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>73</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>98</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E78" s="3">
         <v>-1</v>
@@ -4944,18 +4938,18 @@
       <c r="AA78" s="3"/>
       <c r="AB78" s="3"/>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>74</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E79" s="3">
         <v>12</v>
@@ -4988,12 +4982,12 @@
       <c r="AA79" s="3"/>
       <c r="AB79" s="3"/>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>75</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>100</v>
@@ -5032,18 +5026,18 @@
       <c r="AA80" s="3"/>
       <c r="AB80" s="3"/>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>76</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E81" s="3">
         <v>-1</v>
@@ -5076,18 +5070,18 @@
       <c r="AA81" s="3"/>
       <c r="AB81" s="3"/>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>77</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>102</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E82" s="3">
         <v>-1</v>
@@ -5120,18 +5114,18 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
     </row>
-    <row r="83" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>78</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>103</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E83" s="3">
         <v>-1</v>
@@ -5164,18 +5158,18 @@
       <c r="AA83" s="3"/>
       <c r="AB83" s="3"/>
     </row>
-    <row r="84" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>79</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E84" s="3">
         <v>12</v>
@@ -5208,12 +5202,12 @@
       <c r="AA84" s="3"/>
       <c r="AB84" s="3"/>
     </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>80</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>105</v>
@@ -5252,7 +5246,7 @@
       <c r="AA85" s="3"/>
       <c r="AB85" s="3"/>
     </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>81</v>
       </c>
@@ -5296,7 +5290,7 @@
       <c r="AA86" s="3"/>
       <c r="AB86" s="3"/>
     </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>82</v>
       </c>
@@ -5340,7 +5334,7 @@
       <c r="AA87" s="3"/>
       <c r="AB87" s="3"/>
     </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>83</v>
       </c>
@@ -5386,7 +5380,7 @@
       <c r="AA88" s="3"/>
       <c r="AB88" s="3"/>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>1000</v>
       </c>
@@ -5451,7 +5445,7 @@
       <c r="AT89" s="3"/>
       <c r="AU89" s="3"/>
     </row>
-    <row r="90" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -5500,7 +5494,7 @@
       <c r="AT90" s="3"/>
       <c r="AU90" s="3"/>
     </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -5549,7 +5543,7 @@
       <c r="AT91" s="3"/>
       <c r="AU91" s="3"/>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -5598,7 +5592,7 @@
       <c r="AT92" s="3"/>
       <c r="AU92" s="3"/>
     </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5647,7 +5641,7 @@
       <c r="AT93" s="3"/>
       <c r="AU93" s="3"/>
     </row>
-    <row r="94" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -5696,7 +5690,7 @@
       <c r="AT94" s="3"/>
       <c r="AU94" s="3"/>
     </row>
-    <row r="95" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -5745,7 +5739,7 @@
       <c r="AT95" s="3"/>
       <c r="AU95" s="3"/>
     </row>
-    <row r="96" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -5794,7 +5788,7 @@
       <c r="AT96" s="3"/>
       <c r="AU96" s="3"/>
     </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -5843,7 +5837,7 @@
       <c r="AT97" s="3"/>
       <c r="AU97" s="3"/>
     </row>
-    <row r="98" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -5892,7 +5886,7 @@
       <c r="AT98" s="3"/>
       <c r="AU98" s="3"/>
     </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -5941,7 +5935,7 @@
       <c r="AT99" s="3"/>
       <c r="AU99" s="3"/>
     </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -5990,7 +5984,7 @@
       <c r="AT100" s="3"/>
       <c r="AU100" s="3"/>
     </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -6039,7 +6033,7 @@
       <c r="AT101" s="3"/>
       <c r="AU101" s="3"/>
     </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -6088,7 +6082,7 @@
       <c r="AT102" s="3"/>
       <c r="AU102" s="3"/>
     </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -6137,7 +6131,7 @@
       <c r="AT103" s="3"/>
       <c r="AU103" s="3"/>
     </row>
-    <row r="104" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -6186,7 +6180,7 @@
       <c r="AT104" s="3"/>
       <c r="AU104" s="3"/>
     </row>
-    <row r="105" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -6235,7 +6229,7 @@
       <c r="AT105" s="3"/>
       <c r="AU105" s="3"/>
     </row>
-    <row r="106" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -6284,7 +6278,7 @@
       <c r="AT106" s="3"/>
       <c r="AU106" s="3"/>
     </row>
-    <row r="107" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -6333,7 +6327,7 @@
       <c r="AT107" s="3"/>
       <c r="AU107" s="3"/>
     </row>
-    <row r="108" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -6382,7 +6376,7 @@
       <c r="AT108" s="3"/>
       <c r="AU108" s="3"/>
     </row>
-    <row r="109" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -6431,7 +6425,7 @@
       <c r="AT109" s="3"/>
       <c r="AU109" s="3"/>
     </row>
-    <row r="110" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -6480,7 +6474,7 @@
       <c r="AT110" s="3"/>
       <c r="AU110" s="3"/>
     </row>
-    <row r="111" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -6529,7 +6523,7 @@
       <c r="AT111" s="3"/>
       <c r="AU111" s="3"/>
     </row>
-    <row r="112" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6578,7 +6572,7 @@
       <c r="AT112" s="3"/>
       <c r="AU112" s="3"/>
     </row>
-    <row r="113" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -6627,7 +6621,7 @@
       <c r="AT113" s="3"/>
       <c r="AU113" s="3"/>
     </row>
-    <row r="114" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6676,7 +6670,7 @@
       <c r="AT114" s="3"/>
       <c r="AU114" s="3"/>
     </row>
-    <row r="115" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -6725,7 +6719,7 @@
       <c r="AT115" s="3"/>
       <c r="AU115" s="3"/>
     </row>
-    <row r="116" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -6774,7 +6768,7 @@
       <c r="AT116" s="3"/>
       <c r="AU116" s="3"/>
     </row>
-    <row r="117" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -6823,7 +6817,7 @@
       <c r="AT117" s="3"/>
       <c r="AU117" s="3"/>
     </row>
-    <row r="118" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -6872,7 +6866,7 @@
       <c r="AT118" s="3"/>
       <c r="AU118" s="3"/>
     </row>
-    <row r="119" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -6921,7 +6915,7 @@
       <c r="AT119" s="3"/>
       <c r="AU119" s="3"/>
     </row>
-    <row r="120" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -6970,7 +6964,7 @@
       <c r="AT120" s="3"/>
       <c r="AU120" s="3"/>
     </row>
-    <row r="121" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -7019,7 +7013,7 @@
       <c r="AT121" s="3"/>
       <c r="AU121" s="3"/>
     </row>
-    <row r="122" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -7068,7 +7062,7 @@
       <c r="AT122" s="3"/>
       <c r="AU122" s="3"/>
     </row>
-    <row r="123" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -7117,7 +7111,7 @@
       <c r="AT123" s="3"/>
       <c r="AU123" s="3"/>
     </row>
-    <row r="124" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -7166,7 +7160,7 @@
       <c r="AT124" s="3"/>
       <c r="AU124" s="3"/>
     </row>
-    <row r="125" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -7215,7 +7209,7 @@
       <c r="AT125" s="3"/>
       <c r="AU125" s="3"/>
     </row>
-    <row r="126" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -7264,7 +7258,7 @@
       <c r="AT126" s="3"/>
       <c r="AU126" s="3"/>
     </row>
-    <row r="127" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -7313,7 +7307,7 @@
       <c r="AT127" s="3"/>
       <c r="AU127" s="3"/>
     </row>
-    <row r="128" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -7362,7 +7356,7 @@
       <c r="AT128" s="3"/>
       <c r="AU128" s="3"/>
     </row>
-    <row r="129" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -7411,7 +7405,7 @@
       <c r="AT129" s="3"/>
       <c r="AU129" s="3"/>
     </row>
-    <row r="130" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -7460,7 +7454,7 @@
       <c r="AT130" s="3"/>
       <c r="AU130" s="3"/>
     </row>
-    <row r="131" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -7509,7 +7503,7 @@
       <c r="AT131" s="3"/>
       <c r="AU131" s="3"/>
     </row>
-    <row r="132" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -7558,7 +7552,7 @@
       <c r="AT132" s="3"/>
       <c r="AU132" s="3"/>
     </row>
-    <row r="133" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -7607,7 +7601,7 @@
       <c r="AT133" s="3"/>
       <c r="AU133" s="3"/>
     </row>
-    <row r="134" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -7656,7 +7650,7 @@
       <c r="AT134" s="3"/>
       <c r="AU134" s="3"/>
     </row>
-    <row r="135" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -7705,7 +7699,7 @@
       <c r="AT135" s="3"/>
       <c r="AU135" s="3"/>
     </row>
-    <row r="136" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -7754,7 +7748,7 @@
       <c r="AT136" s="3"/>
       <c r="AU136" s="3"/>
     </row>
-    <row r="137" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -7803,7 +7797,7 @@
       <c r="AT137" s="3"/>
       <c r="AU137" s="3"/>
     </row>
-    <row r="138" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -7852,7 +7846,7 @@
       <c r="AT138" s="3"/>
       <c r="AU138" s="3"/>
     </row>
-    <row r="139" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -7901,7 +7895,7 @@
       <c r="AT139" s="3"/>
       <c r="AU139" s="3"/>
     </row>
-    <row r="140" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -7950,7 +7944,7 @@
       <c r="AT140" s="3"/>
       <c r="AU140" s="3"/>
     </row>
-    <row r="141" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -7999,7 +7993,7 @@
       <c r="AT141" s="3"/>
       <c r="AU141" s="3"/>
     </row>
-    <row r="142" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -8048,7 +8042,7 @@
       <c r="AT142" s="3"/>
       <c r="AU142" s="3"/>
     </row>
-    <row r="143" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -8097,7 +8091,7 @@
       <c r="AT143" s="3"/>
       <c r="AU143" s="3"/>
     </row>
-    <row r="144" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -8146,7 +8140,7 @@
       <c r="AT144" s="3"/>
       <c r="AU144" s="3"/>
     </row>
-    <row r="145" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -8195,7 +8189,7 @@
       <c r="AT145" s="3"/>
       <c r="AU145" s="3"/>
     </row>
-    <row r="146" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -8244,7 +8238,7 @@
       <c r="AT146" s="3"/>
       <c r="AU146" s="3"/>
     </row>
-    <row r="147" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -8293,7 +8287,7 @@
       <c r="AT147" s="3"/>
       <c r="AU147" s="3"/>
     </row>
-    <row r="148" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -8342,7 +8336,7 @@
       <c r="AT148" s="3"/>
       <c r="AU148" s="3"/>
     </row>
-    <row r="149" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -8391,7 +8385,7 @@
       <c r="AT149" s="3"/>
       <c r="AU149" s="3"/>
     </row>
-    <row r="150" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -8440,7 +8434,7 @@
       <c r="AT150" s="3"/>
       <c r="AU150" s="3"/>
     </row>
-    <row r="151" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -8489,7 +8483,7 @@
       <c r="AT151" s="3"/>
       <c r="AU151" s="3"/>
     </row>
-    <row r="152" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -8538,7 +8532,7 @@
       <c r="AT152" s="3"/>
       <c r="AU152" s="3"/>
     </row>
-    <row r="153" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -8587,7 +8581,7 @@
       <c r="AT153" s="3"/>
       <c r="AU153" s="3"/>
     </row>
-    <row r="154" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -8636,7 +8630,7 @@
       <c r="AT154" s="3"/>
       <c r="AU154" s="3"/>
     </row>
-    <row r="155" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -8685,7 +8679,7 @@
       <c r="AT155" s="3"/>
       <c r="AU155" s="3"/>
     </row>
-    <row r="156" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -8734,7 +8728,7 @@
       <c r="AT156" s="3"/>
       <c r="AU156" s="3"/>
     </row>
-    <row r="157" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -8783,7 +8777,7 @@
       <c r="AT157" s="3"/>
       <c r="AU157" s="3"/>
     </row>
-    <row r="158" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -8832,7 +8826,7 @@
       <c r="AT158" s="3"/>
       <c r="AU158" s="3"/>
     </row>
-    <row r="159" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -8881,7 +8875,7 @@
       <c r="AT159" s="3"/>
       <c r="AU159" s="3"/>
     </row>
-    <row r="160" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -8930,7 +8924,7 @@
       <c r="AT160" s="3"/>
       <c r="AU160" s="3"/>
     </row>
-    <row r="161" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -8979,7 +8973,7 @@
       <c r="AT161" s="3"/>
       <c r="AU161" s="3"/>
     </row>
-    <row r="162" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -9028,7 +9022,7 @@
       <c r="AT162" s="3"/>
       <c r="AU162" s="3"/>
     </row>
-    <row r="163" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -9077,7 +9071,7 @@
       <c r="AT163" s="3"/>
       <c r="AU163" s="3"/>
     </row>
-    <row r="164" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -9126,7 +9120,7 @@
       <c r="AT164" s="3"/>
       <c r="AU164" s="3"/>
     </row>
-    <row r="165" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -9175,7 +9169,7 @@
       <c r="AT165" s="3"/>
       <c r="AU165" s="3"/>
     </row>
-    <row r="166" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -9224,7 +9218,7 @@
       <c r="AT166" s="3"/>
       <c r="AU166" s="3"/>
     </row>
-    <row r="167" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -9273,7 +9267,7 @@
       <c r="AT167" s="3"/>
       <c r="AU167" s="3"/>
     </row>
-    <row r="168" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -9322,7 +9316,7 @@
       <c r="AT168" s="3"/>
       <c r="AU168" s="3"/>
     </row>
-    <row r="169" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -9371,7 +9365,7 @@
       <c r="AT169" s="3"/>
       <c r="AU169" s="3"/>
     </row>
-    <row r="170" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -9420,7 +9414,7 @@
       <c r="AT170" s="3"/>
       <c r="AU170" s="3"/>
     </row>
-    <row r="171" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -9469,7 +9463,7 @@
       <c r="AT171" s="3"/>
       <c r="AU171" s="3"/>
     </row>
-    <row r="172" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -9518,7 +9512,7 @@
       <c r="AT172" s="3"/>
       <c r="AU172" s="3"/>
     </row>
-    <row r="173" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -9567,7 +9561,7 @@
       <c r="AT173" s="3"/>
       <c r="AU173" s="3"/>
     </row>
-    <row r="174" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -9616,7 +9610,7 @@
       <c r="AT174" s="3"/>
       <c r="AU174" s="3"/>
     </row>
-    <row r="175" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -9665,7 +9659,7 @@
       <c r="AT175" s="3"/>
       <c r="AU175" s="3"/>
     </row>
-    <row r="176" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -9714,7 +9708,7 @@
       <c r="AT176" s="3"/>
       <c r="AU176" s="3"/>
     </row>
-    <row r="177" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -9763,7 +9757,7 @@
       <c r="AT177" s="3"/>
       <c r="AU177" s="3"/>
     </row>
-    <row r="178" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -9812,7 +9806,7 @@
       <c r="AT178" s="3"/>
       <c r="AU178" s="3"/>
     </row>
-    <row r="179" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -9861,7 +9855,7 @@
       <c r="AT179" s="3"/>
       <c r="AU179" s="3"/>
     </row>
-    <row r="180" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -9910,7 +9904,7 @@
       <c r="AT180" s="3"/>
       <c r="AU180" s="3"/>
     </row>
-    <row r="181" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -9959,7 +9953,7 @@
       <c r="AT181" s="3"/>
       <c r="AU181" s="3"/>
     </row>
-    <row r="182" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -10008,7 +10002,7 @@
       <c r="AT182" s="3"/>
       <c r="AU182" s="3"/>
     </row>
-    <row r="183" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -10057,7 +10051,7 @@
       <c r="AT183" s="3"/>
       <c r="AU183" s="3"/>
     </row>
-    <row r="184" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -10106,7 +10100,7 @@
       <c r="AT184" s="3"/>
       <c r="AU184" s="3"/>
     </row>
-    <row r="185" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -10155,7 +10149,7 @@
       <c r="AT185" s="3"/>
       <c r="AU185" s="3"/>
     </row>
-    <row r="186" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -10204,7 +10198,7 @@
       <c r="AT186" s="3"/>
       <c r="AU186" s="3"/>
     </row>
-    <row r="187" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -10253,7 +10247,7 @@
       <c r="AT187" s="3"/>
       <c r="AU187" s="3"/>
     </row>
-    <row r="188" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -10302,7 +10296,7 @@
       <c r="AT188" s="3"/>
       <c r="AU188" s="3"/>
     </row>
-    <row r="189" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -10351,7 +10345,7 @@
       <c r="AT189" s="3"/>
       <c r="AU189" s="3"/>
     </row>
-    <row r="190" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -10400,7 +10394,7 @@
       <c r="AT190" s="3"/>
       <c r="AU190" s="3"/>
     </row>
-    <row r="191" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -10449,7 +10443,7 @@
       <c r="AT191" s="3"/>
       <c r="AU191" s="3"/>
     </row>
-    <row r="192" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -10498,7 +10492,7 @@
       <c r="AT192" s="3"/>
       <c r="AU192" s="3"/>
     </row>
-    <row r="193" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -10547,7 +10541,7 @@
       <c r="AT193" s="3"/>
       <c r="AU193" s="3"/>
     </row>
-    <row r="194" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -10596,7 +10590,7 @@
       <c r="AT194" s="3"/>
       <c r="AU194" s="3"/>
     </row>
-    <row r="195" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -10645,7 +10639,7 @@
       <c r="AT195" s="3"/>
       <c r="AU195" s="3"/>
     </row>
-    <row r="196" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -10694,7 +10688,7 @@
       <c r="AT196" s="3"/>
       <c r="AU196" s="3"/>
     </row>
-    <row r="197" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -10743,7 +10737,7 @@
       <c r="AT197" s="3"/>
       <c r="AU197" s="3"/>
     </row>
-    <row r="198" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -10792,7 +10786,7 @@
       <c r="AT198" s="3"/>
       <c r="AU198" s="3"/>
     </row>
-    <row r="199" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -10841,7 +10835,7 @@
       <c r="AT199" s="3"/>
       <c r="AU199" s="3"/>
     </row>
-    <row r="200" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -10890,7 +10884,7 @@
       <c r="AT200" s="3"/>
       <c r="AU200" s="3"/>
     </row>
-    <row r="201" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -10939,7 +10933,7 @@
       <c r="AT201" s="3"/>
       <c r="AU201" s="3"/>
     </row>
-    <row r="202" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -10988,7 +10982,7 @@
       <c r="AT202" s="3"/>
       <c r="AU202" s="3"/>
     </row>
-    <row r="203" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -11037,7 +11031,7 @@
       <c r="AT203" s="3"/>
       <c r="AU203" s="3"/>
     </row>
-    <row r="204" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>

--- a/jyx2/Assets/Mods/jhz/Configs/场景.xlsx
+++ b/jyx2/Assets/Mods/jhz/Configs/场景.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="267">
   <si>
     <t>Id</t>
   </si>
@@ -148,9 +148,6 @@
     <t>04_kunlunxianjing</t>
   </si>
   <si>
-    <t>Leave:67</t>
-  </si>
-  <si>
     <t>POINTLIGHT</t>
   </si>
   <si>
@@ -416,9 +413,6 @@
   </si>
   <si>
     <t>83_shengtang</t>
-  </si>
-  <si>
-    <t>Leave:76</t>
   </si>
   <si>
     <r>
@@ -463,261 +457,10 @@
     <t>Leave:1</t>
   </si>
   <si>
-    <t>Leave:2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:6</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:7</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:9</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:10</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:13</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:14</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:15</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:16</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:17</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:19</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:20</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:23</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:24</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:26</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:28</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:29</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:30</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:32</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:33</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:34</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:35</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:37</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:38</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:40</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:43</t>
-  </si>
-  <si>
-    <t>Leave:44</t>
-  </si>
-  <si>
-    <t>Leave:45</t>
-  </si>
-  <si>
-    <t>Leave:46</t>
-  </si>
-  <si>
-    <t>Leave:47</t>
-  </si>
-  <si>
-    <t>Leave:49</t>
-  </si>
-  <si>
-    <t>Leave:50</t>
-  </si>
-  <si>
-    <t>Leave:53</t>
-  </si>
-  <si>
-    <t>Leave:54</t>
-  </si>
-  <si>
-    <t>Leave:56</t>
-  </si>
-  <si>
-    <t>Leave:57</t>
-  </si>
-  <si>
-    <t>Leave:58</t>
-  </si>
-  <si>
-    <t>Leave:59</t>
-  </si>
-  <si>
-    <t>Leave:60</t>
-  </si>
-  <si>
-    <t>Leave:62</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:63</t>
-  </si>
-  <si>
-    <t>Leave:64</t>
-  </si>
-  <si>
-    <t>Leave:65</t>
-  </si>
-  <si>
-    <t>Leave:66</t>
-  </si>
-  <si>
-    <t>Leave:69</t>
-  </si>
-  <si>
-    <t>Leave:70</t>
-  </si>
-  <si>
-    <t>Leave:73</t>
-  </si>
-  <si>
-    <t>Leave:75</t>
-  </si>
-  <si>
-    <t>Leave:78</t>
-  </si>
-  <si>
-    <t>Leave:79</t>
-  </si>
-  <si>
-    <t>Leave:80</t>
-  </si>
-  <si>
     <t>Leave:0,Leave2:11,Leave3:21,Leave4:31,Leave5:41,Leave6:51,Leave7:61,Leave8:71</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Leave:9</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:13</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:20</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:23</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:26</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:29</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:38</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:40</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:43</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:49</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:54</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:56</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:69</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:73</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:75</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave:78</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>胡居</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1030,7 +773,275 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Leave:6</t>
+    <t>Leave:2,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:3,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:4,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:6,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:7,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:9,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:10,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:1,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:13,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:13,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:14,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:15,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:16,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:17,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:20,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:19,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:23,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:23,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:24,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:26,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:29,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:28,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:29,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:30,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:32,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:33,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:34,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:35,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:38,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:37,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:40,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:40,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:43,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:43,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:44,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:45,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:46,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:47,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:49,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:49,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:50,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:54,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:53,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:54,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:56,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:56,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:57,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:58,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:59,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:60,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:62,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:63,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:64,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:65,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:66,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:67,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:69,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:69,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:70,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:73,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:73,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:75,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:75,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:76,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:78,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:78,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:79,Leave2:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave:80,Leave2:1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1500,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C64" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1519,10 +1530,10 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.35">
@@ -1551,7 +1562,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>267</v>
+        <v>196</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -1575,31 +1586,31 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1647,7 +1658,7 @@
         <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>268</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
@@ -1655,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>122</v>
+        <v>199</v>
       </c>
       <c r="E5" s="3">
         <v>-1</v>
@@ -1699,13 +1710,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>194</v>
+        <v>123</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
@@ -1717,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>269</v>
+        <v>198</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1747,13 +1758,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="E7" s="3">
         <v>-1</v>
@@ -1797,7 +1808,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="E8" s="3">
         <v>2</v>
@@ -1835,13 +1846,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>195</v>
+        <v>124</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>270</v>
+        <v>202</v>
       </c>
       <c r="E9" s="3">
         <v>8</v>
@@ -1853,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1881,13 +1892,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c r="E10" s="3">
         <v>12</v>
@@ -1899,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1927,13 +1938,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>197</v>
+        <v>126</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>126</v>
+        <v>203</v>
       </c>
       <c r="E11" s="3">
         <v>11</v>
@@ -1971,13 +1982,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>198</v>
+        <v>127</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="E12" s="3">
         <v>12</v>
@@ -1989,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2017,13 +2028,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>127</v>
+        <v>204</v>
       </c>
       <c r="E13" s="3">
         <v>4</v>
@@ -2061,13 +2072,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>128</v>
+        <v>205</v>
       </c>
       <c r="E14" s="3">
         <v>-1</v>
@@ -2105,13 +2116,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c r="E15" s="3">
         <v>12</v>
@@ -2123,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2151,13 +2162,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="E16" s="3">
         <v>10</v>
@@ -2195,13 +2206,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>129</v>
+        <v>208</v>
       </c>
       <c r="E17" s="3">
         <v>-1</v>
@@ -2239,13 +2250,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="E18" s="3">
         <v>12</v>
@@ -2283,13 +2294,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>204</v>
+        <v>133</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="E19" s="3">
         <v>12</v>
@@ -2301,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -2329,13 +2340,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>205</v>
+        <v>134</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>132</v>
+        <v>211</v>
       </c>
       <c r="E20" s="3">
         <v>12</v>
@@ -2373,13 +2384,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="E21" s="3">
         <v>4</v>
@@ -2417,13 +2428,13 @@
         <v>17</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="E22" s="3">
         <v>4</v>
@@ -2461,13 +2472,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D23" s="6" t="s">
-        <v>134</v>
+        <v>214</v>
       </c>
       <c r="E23" s="3">
         <v>12</v>
@@ -2479,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -2507,13 +2518,13 @@
         <v>19</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="E24" s="3">
         <v>22</v>
@@ -2551,13 +2562,13 @@
         <v>20</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c r="E25" s="3">
         <v>13</v>
@@ -2595,13 +2606,13 @@
         <v>21</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>210</v>
+        <v>139</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="E26" s="3">
         <v>8</v>
@@ -2613,7 +2624,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -2641,13 +2652,13 @@
         <v>22</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E27" s="3">
         <v>-1</v>
@@ -2685,13 +2696,13 @@
         <v>23</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="E28" s="3">
         <v>-1</v>
@@ -2729,13 +2740,13 @@
         <v>24</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="E29" s="3">
         <v>-1</v>
@@ -2773,13 +2784,13 @@
         <v>25</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>214</v>
+        <v>143</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="E30" s="3">
         <v>15</v>
@@ -2817,13 +2828,13 @@
         <v>26</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>215</v>
+        <v>144</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="E31" s="3">
         <v>-1</v>
@@ -2861,13 +2872,13 @@
         <v>27</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>139</v>
+        <v>220</v>
       </c>
       <c r="E32" s="3">
         <v>-1</v>
@@ -2905,13 +2916,13 @@
         <v>28</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>217</v>
+        <v>146</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="E33" s="3">
         <v>20</v>
@@ -2949,13 +2960,13 @@
         <v>29</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>218</v>
+        <v>147</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>141</v>
+        <v>222</v>
       </c>
       <c r="E34" s="3">
         <v>22</v>
@@ -2993,13 +3004,13 @@
         <v>30</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>219</v>
+        <v>148</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c r="E35" s="3">
         <v>-1</v>
@@ -3037,13 +3048,13 @@
         <v>31</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>142</v>
+        <v>223</v>
       </c>
       <c r="E36" s="3">
         <v>21</v>
@@ -3081,13 +3092,13 @@
         <v>32</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
@@ -3125,13 +3136,13 @@
         <v>33</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="E38" s="3">
         <v>23</v>
@@ -3169,13 +3180,13 @@
         <v>34</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>223</v>
+        <v>152</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="E39" s="3">
         <v>-1</v>
@@ -3213,13 +3224,13 @@
         <v>35</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>224</v>
+        <v>153</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="E40" s="3">
         <v>4</v>
@@ -3257,13 +3268,13 @@
         <v>36</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="E41" s="3">
         <v>-1</v>
@@ -3301,13 +3312,13 @@
         <v>37</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>226</v>
+        <v>155</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="E42" s="3">
         <v>-1</v>
@@ -3345,13 +3356,13 @@
         <v>38</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="E43" s="3">
         <v>-1</v>
@@ -3389,13 +3400,13 @@
         <v>39</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>228</v>
+        <v>157</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="E44" s="3">
         <v>4</v>
@@ -3433,13 +3444,13 @@
         <v>40</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>229</v>
+        <v>158</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c r="E45" s="3">
         <v>2</v>
@@ -3477,13 +3488,13 @@
         <v>41</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>230</v>
+        <v>159</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>184</v>
+        <v>231</v>
       </c>
       <c r="E46" s="3">
         <v>12</v>
@@ -3495,7 +3506,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
@@ -3523,13 +3534,13 @@
         <v>42</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>149</v>
+        <v>232</v>
       </c>
       <c r="E47" s="3">
         <v>12</v>
@@ -3541,7 +3552,7 @@
         <v>1</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -3569,13 +3580,13 @@
         <v>43</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>232</v>
+        <v>161</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>150</v>
+        <v>233</v>
       </c>
       <c r="E48" s="3">
         <v>22</v>
@@ -3613,13 +3624,13 @@
         <v>44</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>151</v>
+        <v>234</v>
       </c>
       <c r="E49" s="3">
         <v>-1</v>
@@ -3657,13 +3668,13 @@
         <v>45</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>234</v>
+        <v>163</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>152</v>
+        <v>235</v>
       </c>
       <c r="E50" s="3">
         <v>8</v>
@@ -3701,13 +3712,13 @@
         <v>46</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>235</v>
+        <v>164</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c r="E51" s="3">
         <v>12</v>
@@ -3719,7 +3730,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -3747,13 +3758,13 @@
         <v>47</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>236</v>
+        <v>165</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="E52" s="3">
         <v>8</v>
@@ -3791,13 +3802,13 @@
         <v>48</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>237</v>
+        <v>166</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="E53" s="3">
         <v>-1</v>
@@ -3835,13 +3846,13 @@
         <v>49</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>238</v>
+        <v>167</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>155</v>
+        <v>239</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -3879,13 +3890,13 @@
         <v>50</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c r="E55" s="3">
         <v>1</v>
@@ -3923,13 +3934,13 @@
         <v>51</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="D56" s="6" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="E56" s="3">
         <v>-1</v>
@@ -3967,13 +3978,13 @@
         <v>52</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>240</v>
+        <v>169</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>156</v>
+        <v>241</v>
       </c>
       <c r="E57" s="3">
         <v>1</v>
@@ -4011,13 +4022,13 @@
         <v>53</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>157</v>
+        <v>242</v>
       </c>
       <c r="E58" s="3">
         <v>-1</v>
@@ -4055,13 +4066,13 @@
         <v>54</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>242</v>
+        <v>171</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="E59" s="3">
         <v>-1</v>
@@ -4099,13 +4110,13 @@
         <v>55</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="D60" s="6" t="s">
-        <v>158</v>
+        <v>244</v>
       </c>
       <c r="E60" s="3">
         <v>1</v>
@@ -4143,13 +4154,13 @@
         <v>56</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>243</v>
+        <v>172</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>159</v>
+        <v>245</v>
       </c>
       <c r="E61" s="3">
         <v>9</v>
@@ -4187,13 +4198,13 @@
         <v>57</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>244</v>
+        <v>173</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>160</v>
+        <v>246</v>
       </c>
       <c r="E62" s="3">
         <v>-1</v>
@@ -4231,13 +4242,13 @@
         <v>58</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>245</v>
+        <v>174</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>161</v>
+        <v>247</v>
       </c>
       <c r="E63" s="3">
         <v>-1</v>
@@ -4275,13 +4286,13 @@
         <v>59</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>246</v>
+        <v>175</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>162</v>
+        <v>248</v>
       </c>
       <c r="E64" s="3">
         <v>-1</v>
@@ -4319,13 +4330,13 @@
         <v>60</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>247</v>
+        <v>176</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c r="E65" s="3">
         <v>2</v>
@@ -4363,13 +4374,13 @@
         <v>61</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>248</v>
+        <v>177</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>163</v>
+        <v>249</v>
       </c>
       <c r="E66" s="3">
         <v>2</v>
@@ -4407,13 +4418,13 @@
         <v>62</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="D67" s="6" t="s">
-        <v>164</v>
+        <v>250</v>
       </c>
       <c r="E67" s="3">
         <v>-1</v>
@@ -4451,13 +4462,13 @@
         <v>63</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>249</v>
+        <v>178</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>165</v>
+        <v>251</v>
       </c>
       <c r="E68" s="3">
         <v>-1</v>
@@ -4495,13 +4506,13 @@
         <v>64</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>166</v>
+        <v>252</v>
       </c>
       <c r="E69" s="3">
         <v>11</v>
@@ -4539,13 +4550,13 @@
         <v>65</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>251</v>
+        <v>180</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>167</v>
+        <v>253</v>
       </c>
       <c r="E70" s="3">
         <v>12</v>
@@ -4557,7 +4568,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
@@ -4585,13 +4596,13 @@
         <v>66</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>252</v>
+        <v>181</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>22</v>
+        <v>254</v>
       </c>
       <c r="E71" s="3">
         <v>12</v>
@@ -4603,7 +4614,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
@@ -4631,13 +4642,13 @@
         <v>67</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>253</v>
+        <v>182</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>188</v>
+        <v>255</v>
       </c>
       <c r="E72" s="3">
         <v>12</v>
@@ -4649,7 +4660,7 @@
         <v>1</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
@@ -4677,13 +4688,13 @@
         <v>68</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>254</v>
+        <v>183</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>168</v>
+        <v>256</v>
       </c>
       <c r="E73" s="3">
         <v>4</v>
@@ -4721,13 +4732,13 @@
         <v>69</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>169</v>
+        <v>257</v>
       </c>
       <c r="E74" s="3">
         <v>4</v>
@@ -4765,13 +4776,13 @@
         <v>70</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>256</v>
+        <v>185</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c r="E75" s="3">
         <v>-1</v>
@@ -4809,13 +4820,13 @@
         <v>71</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>257</v>
+        <v>186</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>189</v>
+        <v>258</v>
       </c>
       <c r="E76" s="3">
         <v>-1</v>
@@ -4853,13 +4864,13 @@
         <v>72</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>258</v>
+        <v>187</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>170</v>
+        <v>259</v>
       </c>
       <c r="E77" s="3">
         <v>12</v>
@@ -4871,7 +4882,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
@@ -4899,13 +4910,13 @@
         <v>73</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="E78" s="3">
         <v>-1</v>
@@ -4943,13 +4954,13 @@
         <v>74</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="E79" s="3">
         <v>12</v>
@@ -4987,13 +4998,13 @@
         <v>75</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>261</v>
+        <v>190</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>112</v>
+        <v>262</v>
       </c>
       <c r="E80" s="3">
         <v>-1</v>
@@ -5031,13 +5042,13 @@
         <v>76</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>262</v>
+        <v>191</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>191</v>
+        <v>263</v>
       </c>
       <c r="E81" s="3">
         <v>-1</v>
@@ -5075,13 +5086,13 @@
         <v>77</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>263</v>
+        <v>192</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>172</v>
+        <v>264</v>
       </c>
       <c r="E82" s="3">
         <v>-1</v>
@@ -5119,13 +5130,13 @@
         <v>78</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>173</v>
+        <v>265</v>
       </c>
       <c r="E83" s="3">
         <v>-1</v>
@@ -5163,13 +5174,13 @@
         <v>79</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>265</v>
+        <v>194</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>174</v>
+        <v>266</v>
       </c>
       <c r="E84" s="3">
         <v>12</v>
@@ -5207,13 +5218,13 @@
         <v>80</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c r="E85" s="3">
         <v>9</v>
@@ -5251,13 +5262,13 @@
         <v>81</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D86" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E86" s="3">
         <v>16</v>
@@ -5295,13 +5306,13 @@
         <v>82</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="D87" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E87" s="3">
         <v>12</v>
@@ -5339,13 +5350,13 @@
         <v>83</v>
       </c>
       <c r="B88" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="D88" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E88" s="3">
         <v>17</v>
@@ -5357,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
@@ -5385,10 +5396,10 @@
         <v>1000</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="D89" s="6">
         <v>-1</v>
@@ -5403,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
